--- a/sql_seminar_question20180330.xlsx
+++ b/sql_seminar_question20180330.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matsumoto/Documents/dt/phpschool/seminar/20180331 sql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/WebServer/Documents/sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="大問1,2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="144">
   <si>
     <t>customer_id</t>
     <phoneticPr fontId="1"/>
@@ -340,39 +340,6 @@
     <t>沖縄   </t>
   </si>
   <si>
-    <t> 538 </t>
-  </si>
-  <si>
-    <t> 233 </t>
-  </si>
-  <si>
-    <t>1351 </t>
-  </si>
-  <si>
-    <t> 622 </t>
-  </si>
-  <si>
-    <t>9126 </t>
-  </si>
-  <si>
-    <t>2032 </t>
-  </si>
-  <si>
-    <t> 748 </t>
-  </si>
-  <si>
-    <t>  69 </t>
-  </si>
-  <si>
-    <t>  72 </t>
-  </si>
-  <si>
-    <t> 510 </t>
-  </si>
-  <si>
-    <t> 143 </t>
-  </si>
-  <si>
     <t>大都市</t>
   </si>
   <si>
@@ -731,25 +698,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>問題4-1 国語80点以上かつ算数50点以上の生徒idは</t>
-    <rPh sb="0" eb="2">
-      <t>モンダ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コクg</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>テn</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サンス</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>テn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>問題5-1 地区別、年齢別、人口別テーブルを出力せよ</t>
     <rPh sb="0" eb="2">
       <t>モンダイ</t>
@@ -832,6 +780,61 @@
   </si>
   <si>
     <t>DeNA    </t>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t> 538</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t> 233</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t> 622</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t> 748</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>  69</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>  72</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t> 510</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t> 143</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題4-3 国語80点以上かつ算数50点以上の生徒idは</t>
+    <rPh sb="0" eb="2">
+      <t>モンダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コクg</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>テn</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンス</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>テn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1293,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="3" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1325,7 +1328,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1335,7 +1338,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B9" s="5"/>
     </row>
@@ -1423,12 +1426,12 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1446,7 +1449,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>24</v>
@@ -1454,7 +1457,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>25</v>
@@ -1462,7 +1465,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>26</v>
@@ -1470,7 +1473,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>27</v>
@@ -1478,7 +1481,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>28</v>
@@ -1505,7 +1508,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1561,7 +1564,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1585,7 +1588,7 @@
         <v>21</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1617,7 +1620,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1673,7 +1676,7 @@
         <v>23</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1691,7 +1694,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B55" s="16"/>
     </row>
@@ -1772,7 +1775,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B62" s="4">
         <v>50</v>
@@ -1814,12 +1817,12 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1829,58 +1832,58 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1893,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="116" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1906,7 +1909,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B3" s="17"/>
     </row>
@@ -1917,13 +1920,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1931,10 +1934,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1942,21 +1945,21 @@
         <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>68</v>
+      <c r="B8" s="4">
+        <v>1351</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1964,32 +1967,32 @@
         <v>58</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>70</v>
+      <c r="B10" s="4">
+        <v>912</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>71</v>
+      <c r="B11" s="4">
+        <v>203</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1997,10 +2000,10 @@
         <v>61</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2008,10 +2011,10 @@
         <v>62</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2019,10 +2022,10 @@
         <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2030,10 +2033,10 @@
         <v>64</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -2041,10 +2044,10 @@
         <v>65</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2054,31 +2057,31 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -2086,22 +2089,22 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1">
         <v>200706</v>
@@ -2115,58 +2118,58 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2177,7 +2180,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -2185,7 +2188,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2196,7 +2199,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -2206,7 +2209,7 @@
         <v>1990</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -2216,7 +2219,7 @@
         <v>1991</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -2226,7 +2229,7 @@
         <v>1992</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -2236,7 +2239,7 @@
         <v>1993</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -2246,7 +2249,7 @@
         <v>1994</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -2256,7 +2259,7 @@
         <v>1995</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -2266,7 +2269,7 @@
         <v>1996</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2274,7 +2277,7 @@
         <v>1997</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2324,28 +2327,28 @@
     <row r="49" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
@@ -2353,7 +2356,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B54" s="1">
         <v>4</v>
@@ -2361,42 +2364,42 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2411,29 +2414,29 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C70" s="10">
         <v>1100</v>
@@ -2444,10 +2447,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C71" s="10">
         <v>1300</v>
@@ -2458,10 +2461,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C72" s="10">
         <v>0</v>
@@ -2472,10 +2475,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C73" s="10">
         <v>0</v>
@@ -2486,10 +2489,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C74" s="10">
         <v>1000</v>
@@ -2500,10 +2503,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C75" s="10">
         <v>1800</v>
